--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="卡片内容" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>真心话</t>
-  </si>
-  <si>
-    <t>大冒险</t>
+    <t>卡片内容</t>
   </si>
 </sst>
 </file>
@@ -29,9 +26,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -42,9 +39,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,16 +83,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,43 +123,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,7 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,14 +146,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,30 +159,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,49 +198,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,133 +360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,8 +395,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,15 +412,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,8 +434,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +471,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,145 +497,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,92 +962,227 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡片内容" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="回复表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,9 +16,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>卡片内容</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+  <si>
+    <t>真心话</t>
+  </si>
+  <si>
+    <t>大冒险</t>
+  </si>
+  <si>
+    <t>调教版</t>
+  </si>
+  <si>
+    <t>大多数都</t>
+  </si>
+  <si>
+    <t>啊啊1</t>
+  </si>
+  <si>
+    <t>脱光衣服</t>
+  </si>
+  <si>
+    <t>啊啊2</t>
+  </si>
+  <si>
+    <t>倒地拉尿</t>
+  </si>
+  <si>
+    <t>啊啊3</t>
+  </si>
+  <si>
+    <t>啊啊4</t>
+  </si>
+  <si>
+    <t>啊啊5</t>
+  </si>
+  <si>
+    <t>啊啊6</t>
+  </si>
+  <si>
+    <t>啊啊7</t>
+  </si>
+  <si>
+    <t>啊啊8</t>
+  </si>
+  <si>
+    <t>啊啊9</t>
+  </si>
+  <si>
+    <t>啊啊10</t>
+  </si>
+  <si>
+    <t>啊啊11</t>
+  </si>
+  <si>
+    <t>啊啊12</t>
+  </si>
+  <si>
+    <t>啊啊13</t>
+  </si>
+  <si>
+    <t>啊啊14</t>
+  </si>
+  <si>
+    <t>啊啊15</t>
+  </si>
+  <si>
+    <t>啊啊16</t>
+  </si>
+  <si>
+    <t>啊啊17</t>
+  </si>
+  <si>
+    <t>啊啊18</t>
+  </si>
+  <si>
+    <t>啊啊19</t>
+  </si>
+  <si>
+    <t>啊啊20</t>
+  </si>
+  <si>
+    <t>啊啊21</t>
+  </si>
+  <si>
+    <t>啊啊22</t>
+  </si>
+  <si>
+    <t>啊啊23</t>
+  </si>
+  <si>
+    <t>啊啊24</t>
+  </si>
+  <si>
+    <t>啊啊25</t>
+  </si>
+  <si>
+    <t>啊啊26</t>
+  </si>
+  <si>
+    <t>啊啊27</t>
+  </si>
+  <si>
+    <t>啊啊28</t>
+  </si>
+  <si>
+    <t>啊啊29</t>
+  </si>
+  <si>
+    <t>啊啊30</t>
+  </si>
+  <si>
+    <t>啊啊31</t>
+  </si>
+  <si>
+    <t>啊啊32</t>
+  </si>
+  <si>
+    <t>啊啊33</t>
+  </si>
+  <si>
+    <t>啊啊34</t>
+  </si>
+  <si>
+    <t>啊啊35</t>
+  </si>
+  <si>
+    <t>啊啊36</t>
+  </si>
+  <si>
+    <t>啊啊37</t>
+  </si>
+  <si>
+    <t>啊啊38</t>
+  </si>
+  <si>
+    <t>啊啊39</t>
+  </si>
+  <si>
+    <t>啊啊40</t>
+  </si>
+  <si>
+    <t>啊啊41</t>
   </si>
 </sst>
 </file>
@@ -26,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -38,6 +176,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -45,8 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -59,9 +229,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,54 +267,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,56 +305,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,175 +336,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +534,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,6 +589,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,15 +619,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -450,45 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -497,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,227 +1100,357 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1465,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="卡片内容" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>真心话</t>
   </si>
@@ -33,64 +33,115 @@
     <t>啊啊1</t>
   </si>
   <si>
-    <t>脱光衣服</t>
+    <t>订单1</t>
   </si>
   <si>
     <t>啊啊2</t>
   </si>
   <si>
-    <t>倒地拉尿</t>
+    <t>订单2</t>
   </si>
   <si>
     <t>啊啊3</t>
   </si>
   <si>
+    <t>订单3</t>
+  </si>
+  <si>
     <t>啊啊4</t>
   </si>
   <si>
+    <t>订单4</t>
+  </si>
+  <si>
     <t>啊啊5</t>
   </si>
   <si>
+    <t>订单5</t>
+  </si>
+  <si>
     <t>啊啊6</t>
   </si>
   <si>
+    <t>订单6</t>
+  </si>
+  <si>
     <t>啊啊7</t>
   </si>
   <si>
+    <t>订单7</t>
+  </si>
+  <si>
     <t>啊啊8</t>
   </si>
   <si>
+    <t>订单8</t>
+  </si>
+  <si>
     <t>啊啊9</t>
   </si>
   <si>
+    <t>订单9</t>
+  </si>
+  <si>
     <t>啊啊10</t>
   </si>
   <si>
+    <t>订单10</t>
+  </si>
+  <si>
     <t>啊啊11</t>
   </si>
   <si>
+    <t>订单11</t>
+  </si>
+  <si>
     <t>啊啊12</t>
   </si>
   <si>
+    <t>订单12</t>
+  </si>
+  <si>
     <t>啊啊13</t>
   </si>
   <si>
+    <t>订单13</t>
+  </si>
+  <si>
     <t>啊啊14</t>
   </si>
   <si>
+    <t>订单14</t>
+  </si>
+  <si>
     <t>啊啊15</t>
   </si>
   <si>
+    <t>订单15</t>
+  </si>
+  <si>
     <t>啊啊16</t>
   </si>
   <si>
+    <t>订单16</t>
+  </si>
+  <si>
     <t>啊啊17</t>
   </si>
   <si>
+    <t>订单17</t>
+  </si>
+  <si>
     <t>啊啊18</t>
   </si>
   <si>
+    <t>订单18</t>
+  </si>
+  <si>
     <t>啊啊19</t>
+  </si>
+  <si>
+    <t>订单19</t>
   </si>
   <si>
     <t>啊啊20</t>
@@ -1102,8 +1153,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1141,140 +1192,191 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1282,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1290,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1298,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1314,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1322,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1330,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1338,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1346,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1354,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1362,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1370,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1378,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1386,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1394,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1402,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1410,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1418,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1426,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1434,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1442,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1450,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1567,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -1144,8 +1144,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>真心话</t>
   </si>
@@ -51,81 +51,199 @@
     <t>自慰频率怎么样！</t>
   </si>
   <si>
+    <t>尝试兼顾对方选择做三件事。</t>
+  </si>
+  <si>
     <t>如果可以让时间暂停，你会做些什么？</t>
   </si>
   <si>
+    <t>分享一下你手机里最尴尬的照片。</t>
+  </si>
+  <si>
     <t>如果网恋奔现遇到“照骗”，你会怎么做？</t>
   </si>
   <si>
+    <t>显示您最近发短信的五个人以及消息内容。</t>
+  </si>
+  <si>
     <t>你是否幻想过，在某一刻，被迫发生性关系？</t>
   </si>
   <si>
+    <r>
+      <t>让对方从您的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快手帐户直接发送消息。</t>
+    </r>
+  </si>
+  <si>
     <t>你经历(做)过最伤心/开心/羞耻/变态的一件事是什么？</t>
   </si>
   <si>
+    <t>做100个深蹲。</t>
+  </si>
+  <si>
     <t>最满意自己身体哪个部位？/你觉得自己身体哪个部位最性感？</t>
   </si>
   <si>
+    <t>允许对方查看您的微信私信。</t>
+  </si>
+  <si>
     <t>你多少岁了？</t>
   </si>
   <si>
+    <t>显示您的屏幕时间。</t>
+  </si>
+  <si>
     <t>你上班还是上学？</t>
   </si>
   <si>
+    <t>将三个冰块含在嘴里，直到它们融化。</t>
+  </si>
+  <si>
     <t>你哪里人啊？</t>
   </si>
   <si>
+    <t>大声说出你想到的第一个词。</t>
+  </si>
+  <si>
     <t>你交过几个男朋友？</t>
   </si>
   <si>
+    <t>闭上眼睛，直到再次轮到你的大冒险。</t>
+  </si>
+  <si>
     <t>你遇到过最变态的人是怎么样的？</t>
   </si>
   <si>
+    <t>向对方展示你房间里面的东西。</t>
+  </si>
+  <si>
     <t>你遇到过最心动的人是怎么样的？</t>
   </si>
   <si>
+    <r>
+      <t>扮演思考者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟。</t>
+    </r>
+  </si>
+  <si>
     <t>你做过吗？</t>
   </si>
   <si>
+    <t>不用手吃零食。</t>
+  </si>
+  <si>
     <t>后悔第一次给当初的他吗？</t>
   </si>
   <si>
+    <t>倒立劈叉只要倒立</t>
+  </si>
+  <si>
     <t>说说你的初恋？</t>
   </si>
   <si>
+    <t>分享抖音视频草稿</t>
+  </si>
+  <si>
     <t>能接受没有感情的性吗？</t>
   </si>
   <si>
+    <t>显示您最喜欢的自己的照片。</t>
+  </si>
+  <si>
     <t>喜欢什么类型的男孩子/女孩子？</t>
   </si>
   <si>
+    <t>在晚上剩下的时间里，用两只手拿着你的饮料。</t>
+  </si>
+  <si>
     <t>发生过最尴尬的事情是什么？</t>
   </si>
   <si>
+    <t>不照镜子化妆，并在比赛时保持这种状态。</t>
+  </si>
+  <si>
     <t>无聊的时候想干什么？</t>
   </si>
   <si>
+    <t>同意接下来 1 分钟内的所有内容。</t>
+  </si>
+  <si>
     <t>更在意过程还是结果？为什么？</t>
   </si>
   <si>
+    <t>分享某人的秘密，不透露他们的名字。</t>
+  </si>
+  <si>
     <t>如果给你两颗药丸，一颗蓝药丸可以让你获得你想要的生活，但是是虚幻的；一颗红药丸可以让你看见真实的世界，但是是残酷的。你会选择哪颗药丸？</t>
   </si>
   <si>
+    <t>让对方为你设计发型，并在游戏中保持这种发型。</t>
+  </si>
+  <si>
     <t>最喜欢哪个颜色的内衣？</t>
   </si>
   <si>
+    <t>接下来的 10 分钟内只能小声说话。</t>
+  </si>
+  <si>
     <t>今天穿什么颜色的内衣？</t>
   </si>
   <si>
+    <t>创作一首关于你最喜欢的书的说唱。</t>
+  </si>
+  <si>
     <t>会期待一夜情吗？</t>
   </si>
   <si>
+    <t>做50个俯卧撑。</t>
+  </si>
+  <si>
     <t>自己拥有的最宝贵的东西是什么？</t>
   </si>
   <si>
+    <t>预测五年后对方会做什么。</t>
+  </si>
+  <si>
     <t>自己最不想要的又是什么？</t>
   </si>
   <si>
+    <t>给房间里的每个人一个反讽的赞美。</t>
+  </si>
+  <si>
     <t>男女之间存在友谊吗？</t>
   </si>
   <si>
@@ -196,6 +314,506 @@
   </si>
   <si>
     <t>理想中30岁的样子</t>
+  </si>
+  <si>
+    <t>去你喜欢的人家里，想拉肚子怎么办？</t>
+  </si>
+  <si>
+    <t>最后一次发自内心的笑是什么时候？</t>
+  </si>
+  <si>
+    <t>说你最喜欢的一部电影？</t>
+  </si>
+  <si>
+    <t>第一次爱的人对你产生过什么影响？</t>
+  </si>
+  <si>
+    <t>对你而言，感情和友情哪个比较重要？</t>
+  </si>
+  <si>
+    <t>第一个喜欢的异性叫什么名字？</t>
+  </si>
+  <si>
+    <t>和多少异性有过非恋爱的暧昧关系？</t>
+  </si>
+  <si>
+    <t>认同没有性的爱情和没有爱的性吗？</t>
+  </si>
+  <si>
+    <t>对你来说最容易分手的原因是什么？</t>
+  </si>
+  <si>
+    <t>你对异性朋友做的最出格的一件事是什么事呢？</t>
+  </si>
+  <si>
+    <t>从小到大最丢脸出丑的事情是什么？</t>
+  </si>
+  <si>
+    <t>如果你爱的人不爱你怎么办？</t>
+  </si>
+  <si>
+    <t>用四个字形容你现在的生活状态？</t>
+  </si>
+  <si>
+    <t>每天睡觉前都会想起的人是谁？</t>
+  </si>
+  <si>
+    <t>你的初恋对象是谁？</t>
+  </si>
+  <si>
+    <t>说出你撒过的最严重的谎？</t>
+  </si>
+  <si>
+    <t>你最难以释怀的事情是什么？</t>
+  </si>
+  <si>
+    <t>你愿意为爱情牺牲到什么程度？</t>
+  </si>
+  <si>
+    <t>如果你有预知能力，你最不想看到的是什么？</t>
+  </si>
+  <si>
+    <t>爱人和妈掉到水里，只能救一个，你救哪一个？</t>
+  </si>
+  <si>
+    <t>世界末日，你会幸存，并且你可以救一个人，你会救？</t>
+  </si>
+  <si>
+    <t>让你一直念念不忘的一位异性的名字？原因？</t>
+  </si>
+  <si>
+    <t>你喝醉的最有趣或最有趣的一次是什么？</t>
+  </si>
+  <si>
+    <t>分享一下你经历过的最尴尬的时刻。</t>
+  </si>
+  <si>
+    <t>描述一下你做过的最恶心的事情。</t>
+  </si>
+  <si>
+    <t>讲述你最尴尬的出租车故事。</t>
+  </si>
+  <si>
+    <t>让你提前离开聚会的最愚蠢的原因是什么？</t>
+  </si>
+  <si>
+    <t>讲述你的初吻的故事。</t>
+  </si>
+  <si>
+    <t>回想一下您在不适当的情况下不小心放了一个屁。</t>
+  </si>
+  <si>
+    <t>您是否希望家人永远不会发现您的某些事情？</t>
+  </si>
+  <si>
+    <t>你认为房间里谁的时尚感最差？</t>
+  </si>
+  <si>
+    <t>你有没有在镜子前练习过接吻？</t>
+  </si>
+  <si>
+    <t>分享你最糟糕的时尚灾难。</t>
+  </si>
+  <si>
+    <t>你最讨厌的事是什么？</t>
+  </si>
+  <si>
+    <t>找出您觉得最有联系的电视角色。</t>
+  </si>
+  <si>
+    <t>从 Kris、Kourtney、Kim、Khloé、Kendall 或 Kylie 中选择您最喜欢的。</t>
+  </si>
+  <si>
+    <t>你有没有结账就离开餐厅的经历？</t>
+  </si>
+  <si>
+    <t>分享您在海滩上度过亲密时刻的经历（如果有）。</t>
+  </si>
+  <si>
+    <t>你想加入一英里高的俱乐部吗？</t>
+  </si>
+  <si>
+    <t>你会考虑参加像《爱情岛》这样的真人秀节目吗？</t>
+  </si>
+  <si>
+    <t>回想一下你曾经尝试过做的最糟糕的一顿饭。</t>
+  </si>
+  <si>
+    <t>你曾经为伴侣表演过脱衣舞表演吗？</t>
+  </si>
+  <si>
+    <t>如果你必须从一群人中选择一个人一起被困在荒岛上，你会选择谁？</t>
+  </si>
+  <si>
+    <t>想象一下突然拥有一百万英镑；你会怎么花它？</t>
+  </si>
+  <si>
+    <t>在僵尸大灾难中，你希望团队中的谁成为你的盟友？</t>
+  </si>
+  <si>
+    <t>揭示您曾经追随但现在感到尴尬的时尚趋势。</t>
+  </si>
+  <si>
+    <t>你曾经有过一个想象中的朋友吗？</t>
+  </si>
+  <si>
+    <t>分享您清洗床单的频率。</t>
+  </si>
+  <si>
+    <t>你相信存在吗 外星人?</t>
+  </si>
+  <si>
+    <t>你尿过的最奇怪的地方是哪里？</t>
+  </si>
+  <si>
+    <t>你有在淋浴时撒尿的经历吗？</t>
+  </si>
+  <si>
+    <t>最奇怪的是什么 梦想 你有过吗？</t>
+  </si>
+  <si>
+    <t>你们度过亲密时刻的最奇怪的地方是哪里？</t>
+  </si>
+  <si>
+    <t>有什么事情是你一个人的时候才做的？</t>
+  </si>
+  <si>
+    <t>你听过的关于你自己的最奇怪的谣言是什么？</t>
+  </si>
+  <si>
+    <t>您有最喜欢的奇怪食物组合吗？</t>
+  </si>
+  <si>
+    <t>你说过的最奇怪的谎言是什么？</t>
+  </si>
+  <si>
+    <t>你们是否维护任何假货 社会化媒体 帐户？</t>
+  </si>
+  <si>
+    <t>你曾经在游泳池里撒过尿吗？</t>
+  </si>
+  <si>
+    <t>是什么让你感到不安或让你“恶心”？</t>
+  </si>
+  <si>
+    <t>你吃过最奇特的东西是什么？</t>
+  </si>
+  <si>
+    <t>分享一种你绝对喜欢的奇怪食物。</t>
+  </si>
+  <si>
+    <t>你童年时期最大的恐惧是什么？</t>
+  </si>
+  <si>
+    <t>你在学校的时候有暗恋过老师吗？</t>
+  </si>
+  <si>
+    <r>
+      <t>您目前在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TikTok/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抖音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上痴迷的最奇怪的事情是什么？</t>
+    </r>
+  </si>
+  <si>
+    <t>现在你包里最令人惊讶的物品是什么？</t>
+  </si>
+  <si>
+    <t>谁是你的不平凡 名人暗恋?</t>
+  </si>
+  <si>
+    <t>你独处时最奇怪的习惯是什么？</t>
+  </si>
+  <si>
+    <t>您在工作中遇到的最具挑战性的情况是什么？</t>
+  </si>
+  <si>
+    <t>您有什么独特的兴趣或偏好吗？</t>
+  </si>
+  <si>
+    <t>有没有什么事情你的家人不知道而让你感到放心？</t>
+  </si>
+  <si>
+    <t>你在恋爱关系中有过不忠的经历吗？</t>
+  </si>
+  <si>
+    <t>你能回忆起你曾经做过的一个令人遗憾的行为吗？</t>
+  </si>
+  <si>
+    <t>您对开放式关系有何看法？</t>
+  </si>
+  <si>
+    <t>分享一次令人失望的亲密接触。</t>
+  </si>
+  <si>
+    <t>描述您最难忘的积极亲密经历。</t>
+  </si>
+  <si>
+    <t>你曾经触犯过任何法律吗？</t>
+  </si>
+  <si>
+    <t>你是否为了个人利益而维持友谊？</t>
+  </si>
+  <si>
+    <t>你想亲吻这组人中的谁？</t>
+  </si>
+  <si>
+    <t>您遇到过任何法律麻烦吗？</t>
+  </si>
+  <si>
+    <t>你对某人说过最严厉的话是什么？</t>
+  </si>
+  <si>
+    <t>做了不该做的事被抓到了？</t>
+  </si>
+  <si>
+    <t>讲述你最糟糕和最好的约会经历。</t>
+  </si>
+  <si>
+    <t>突出显示您最近一次外出的夜晚。</t>
+  </si>
+  <si>
+    <t>你最后悔的事情是什么？</t>
+  </si>
+  <si>
+    <t>对这个群体中某人的言论感到后悔吗？</t>
+  </si>
+  <si>
+    <t>编造故事来逃避糟糕的约会？</t>
+  </si>
+  <si>
+    <t>详细描述您遇到的最麻烦的情况。</t>
+  </si>
+  <si>
+    <t>您上次进行户外亲密接触是什么时候？</t>
+  </si>
+  <si>
+    <t>你说过的最大的谎言是什么？</t>
+  </si>
+  <si>
+    <t>有什么事情是你希望自己撒谎的吗？</t>
+  </si>
+  <si>
+    <t>分享一下你不是一个好伙伴的时刻。</t>
+  </si>
+  <si>
+    <t>如果你必须和一个朋友断绝关系，你会选择谁？</t>
+  </si>
+  <si>
+    <t>你的秘密放纵是什么？</t>
+  </si>
+  <si>
+    <t>你会和前任复合吗？</t>
+  </si>
+  <si>
+    <t>你有最喜欢的朋友吗？</t>
+  </si>
+  <si>
+    <t>什么最能点燃你的热情？</t>
+  </si>
+  <si>
+    <t>如果你可以和这里的某人交换生命，那会是谁？</t>
+  </si>
+  <si>
+    <t>你曾经为了提升自己的形象而对你最好的朋友撒过谎吗？</t>
+  </si>
+  <si>
+    <t>经历过假期或节日浪漫吗？</t>
+  </si>
+  <si>
+    <t>你会采取什么行动而不产生任何后果？</t>
+  </si>
+  <si>
+    <t>确定你的有毒特质。</t>
+  </si>
+  <si>
+    <t>对前任的感情还存在吗？</t>
+  </si>
+  <si>
+    <t>在爱情和金钱之间优先考虑。</t>
+  </si>
+  <si>
+    <t>第一次约会谁应该买单？</t>
+  </si>
+  <si>
+    <t>与您的伴侣分享您使用的昵称。</t>
+  </si>
+  <si>
+    <t>你曾经撒过谎吗？什么时候？</t>
+  </si>
+  <si>
+    <t>你最近哭过吗？什么时候？</t>
+  </si>
+  <si>
+    <t>什么最让你害怕？</t>
+  </si>
+  <si>
+    <t>你最疯狂的梦想是什么？</t>
+  </si>
+  <si>
+    <t>您最后一次在 Instagram 上查找的人是谁？</t>
+  </si>
+  <si>
+    <t>你吃过最奇怪的东西是什么？</t>
+  </si>
+  <si>
+    <t>什么会让你结束一段关系？</t>
+  </si>
+  <si>
+    <t>有什么秘密是你从未分享过的？</t>
+  </si>
+  <si>
+    <t>你有隐藏技能吗？</t>
+  </si>
+  <si>
+    <t>谁是你的第一次暗恋？</t>
+  </si>
+  <si>
+    <t>你曾经在考试中作弊吗？</t>
+  </si>
+  <si>
+    <t>如果你参加真人秀节目，你会选择哪一档？</t>
+  </si>
+  <si>
+    <t>是什么让你感到没有安全感？</t>
+  </si>
+  <si>
+    <t>你犯过的最大错误是什么？</t>
+  </si>
+  <si>
+    <t>你最讨厌别人了解你什么？</t>
+  </si>
+  <si>
+    <t>有人对你做过最糟糕的事情是什么？</t>
+  </si>
+  <si>
+    <t>有人为你做过的最好的事情是什么？</t>
+  </si>
+  <si>
+    <t>你最坏的习惯是什么？</t>
+  </si>
+  <si>
+    <t>人们对你有什么误解？</t>
+  </si>
+  <si>
+    <t>您希望人们了解您的什么事情？</t>
+  </si>
+  <si>
+    <t>为什么你的上一段感情结束了？</t>
+  </si>
+  <si>
+    <t>您收到的最好建议是什么？</t>
+  </si>
+  <si>
+    <t>你在外面度过的最多一晚是多少？</t>
+  </si>
+  <si>
+    <t>您曾经退货过或收到过礼物吗？</t>
+  </si>
+  <si>
+    <t>你有最喜欢的兄弟姐妹吗？</t>
+  </si>
+  <si>
+    <t>你赚到的最大的钱浪费是什么？</t>
+  </si>
+  <si>
+    <t>从 1 到 10，您如何评价自己的外表？</t>
+  </si>
+  <si>
+    <t>你欣赏哪位名人？</t>
+  </si>
+  <si>
+    <t>如果有一天你可以成为名人，你会选择谁？</t>
+  </si>
+  <si>
+    <t>你喜欢做什么工作？</t>
+  </si>
+  <si>
+    <t>你理想的生活是什么样的？</t>
+  </si>
+  <si>
+    <t>你最看重什么：金钱、名誉、成功、朋友、家人等？</t>
+  </si>
+  <si>
+    <t>你身上有什么重要的警告信号？</t>
+  </si>
+  <si>
+    <t>什么是 电影 你偷偷喜欢？</t>
+  </si>
+  <si>
+    <t>您认为哪位音乐艺术家被高估了？</t>
+  </si>
+  <si>
+    <t>你最有争议的政治信仰是什么？</t>
+  </si>
+  <si>
+    <t>什么是你离不开的东西？</t>
+  </si>
+  <si>
+    <t>你在哪里看到自己在五年内？</t>
+  </si>
+  <si>
+    <t>你认为你能在恐怖电影中幸存吗？</t>
+  </si>
+  <si>
+    <t>你有多少毛绒动物？</t>
+  </si>
+  <si>
+    <t>你曾经进去过吗 在学校遇到麻烦，又为了什么？</t>
+  </si>
+  <si>
+    <t>你有什么担心吗？</t>
   </si>
 </sst>
 </file>
@@ -204,45 +822,27 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="13.5"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="13.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -253,30 +853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -290,6 +868,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -298,9 +920,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,9 +942,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,7 +957,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -345,22 +973,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,13 +1005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +1047,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,133 +1089,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,21 +1196,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,19 +1226,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,16 +1262,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -660,9 +1288,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +1304,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,142 +1316,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1142,23 +1781,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.0833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1166,7 +1805,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1174,7 +1813,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1182,7 +1821,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1190,261 +1829,1087 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="54" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="36" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="54" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="54" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="36" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="36" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="36" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="54" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="72" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" ht="72" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" ht="54" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="72" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" ht="54" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" ht="54" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="36" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="36" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" ht="28.5" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" ht="28.5" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" ht="28.5" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" ht="42.75" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" ht="28.5" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" ht="28.5" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" ht="57" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" ht="28.5" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" ht="28.5" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" ht="28.5" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" ht="28.5" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" ht="28.5" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" ht="28.5" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" ht="28.5" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" ht="28.5" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" ht="28.5" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" ht="28.5" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" ht="28.5" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" ht="28.5" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" ht="28.5" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" ht="28.5" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" ht="36" spans="1:1">
+      <c r="A78" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" ht="36" spans="1:1">
+      <c r="A79" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" ht="36" spans="1:1">
+      <c r="A80" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" ht="36" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" ht="36" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" ht="18" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" ht="36" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" ht="36" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" ht="36" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" ht="36" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" ht="18" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" ht="18" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" ht="36" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" ht="54" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" ht="36" spans="1:1">
+      <c r="A92" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" ht="36" spans="1:1">
+      <c r="A93" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" ht="36" spans="1:1">
+      <c r="A94" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" ht="36" spans="1:1">
+      <c r="A95" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" ht="36" spans="1:1">
+      <c r="A96" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" ht="36" spans="1:1">
+      <c r="A97" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" ht="54" spans="1:1">
+      <c r="A98" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" ht="36" spans="1:1">
+      <c r="A99" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" ht="36" spans="1:1">
+      <c r="A100" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" ht="36" spans="1:1">
+      <c r="A101" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" ht="36" spans="1:1">
+      <c r="A102" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" ht="18" spans="1:1">
+      <c r="A103" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" ht="18" spans="1:1">
+      <c r="A104" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" ht="36" spans="1:1">
+      <c r="A105" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" ht="36" spans="1:1">
+      <c r="A106" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" ht="36" spans="1:1">
+      <c r="A107" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" ht="36" spans="1:1">
+      <c r="A108" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" ht="36" spans="1:1">
+      <c r="A109" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" ht="36" spans="1:1">
+      <c r="A110" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" ht="36" spans="1:1">
+      <c r="A111" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" ht="36" spans="1:1">
+      <c r="A112" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" ht="36" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" ht="36" spans="1:1">
+      <c r="A114" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" ht="36" spans="1:1">
+      <c r="A115" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" ht="36" spans="1:1">
+      <c r="A116" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" ht="36" spans="1:1">
+      <c r="A117" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" ht="36" spans="1:1">
+      <c r="A118" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" ht="36" spans="1:1">
+      <c r="A119" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" ht="54" spans="1:1">
+      <c r="A120" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" ht="36" spans="1:1">
+      <c r="A121" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" ht="18" spans="1:1">
+      <c r="A122" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" ht="36" spans="1:1">
+      <c r="A123" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" ht="36" spans="1:1">
+      <c r="A124" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" ht="36" spans="1:1">
+      <c r="A125" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" ht="36" spans="1:1">
+      <c r="A126" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" ht="36" spans="1:1">
+      <c r="A127" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" ht="36" spans="1:1">
+      <c r="A128" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" ht="18" spans="1:1">
+      <c r="A129" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" ht="36" spans="1:1">
+      <c r="A130" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" ht="36" spans="1:1">
+      <c r="A131" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" ht="18" spans="1:1">
+      <c r="A132" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" ht="36" spans="1:1">
+      <c r="A133" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" ht="18" spans="1:1">
+      <c r="A134" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" ht="18" spans="1:1">
+      <c r="A135" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" ht="36" spans="1:1">
+      <c r="A136" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" ht="18" spans="1:1">
+      <c r="A137" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" ht="36" spans="1:1">
+      <c r="A138" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" ht="36" spans="1:1">
+      <c r="A139" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" ht="18" spans="1:1">
+      <c r="A140" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" ht="36" spans="1:1">
+      <c r="A141" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" ht="36" spans="1:1">
+      <c r="A142" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" ht="36" spans="1:1">
+      <c r="A143" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" ht="36" spans="1:1">
+      <c r="A144" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" ht="36" spans="1:1">
+      <c r="A145" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" ht="36" spans="1:1">
+      <c r="A146" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" ht="36" spans="1:1">
+      <c r="A147" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" ht="36" spans="1:1">
+      <c r="A148" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" ht="18" spans="1:1">
+      <c r="A149" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" ht="18" spans="1:1">
+      <c r="A150" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" ht="18" spans="1:1">
+      <c r="A151" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" ht="18" spans="1:1">
+      <c r="A152" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" ht="36" spans="1:1">
+      <c r="A153" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" ht="54" spans="1:1">
+      <c r="A154" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" ht="18" spans="1:1">
+      <c r="A155" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" ht="36" spans="1:1">
+      <c r="A156" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" ht="18" spans="1:1">
+      <c r="A157" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" ht="18" spans="1:1">
+      <c r="A158" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" ht="36" spans="1:1">
+      <c r="A159" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" ht="18" spans="1:1">
+      <c r="A160" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" ht="36" spans="1:1">
+      <c r="A161" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" ht="36" spans="1:1">
+      <c r="A162" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" ht="18" spans="1:1">
+      <c r="A163" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" ht="18" spans="1:1">
+      <c r="A164" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" ht="18" spans="1:1">
+      <c r="A165" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" ht="36" spans="1:1">
+      <c r="A166" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" ht="36" spans="1:1">
+      <c r="A167" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" ht="18" spans="1:1">
+      <c r="A168" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" ht="36" spans="1:1">
+      <c r="A169" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" ht="18" spans="1:1">
+      <c r="A170" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" ht="18" spans="1:1">
+      <c r="A171" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" ht="18" spans="1:1">
+      <c r="A172" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" ht="36" spans="1:1">
+      <c r="A173" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" ht="36" spans="1:1">
+      <c r="A174" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" ht="18" spans="1:1">
+      <c r="A175" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" ht="18" spans="1:1">
+      <c r="A176" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" ht="36" spans="1:1">
+      <c r="A177" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" ht="36" spans="1:1">
+      <c r="A178" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" ht="18" spans="1:1">
+      <c r="A179" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" ht="18" spans="1:1">
+      <c r="A180" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" ht="36" spans="1:1">
+      <c r="A181" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" ht="36" spans="1:1">
+      <c r="A182" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="183" ht="18" spans="1:1">
+      <c r="A183" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="184" ht="36" spans="1:1">
+      <c r="A184" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" ht="36" spans="1:1">
+      <c r="A185" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="186" ht="18" spans="1:1">
+      <c r="A186" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" ht="36" spans="1:1">
+      <c r="A187" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="188" ht="36" spans="1:1">
+      <c r="A188" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="189" ht="18" spans="1:1">
+      <c r="A189" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" ht="36" spans="1:1">
+      <c r="A190" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" ht="18" spans="1:1">
+      <c r="A191" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="192" ht="18" spans="1:1">
+      <c r="A192" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" ht="36" spans="1:1">
+      <c r="A193" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" ht="36" spans="1:1">
+      <c r="A194" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="195" ht="18" spans="1:1">
+      <c r="A195" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196" ht="36" spans="1:1">
+      <c r="A196" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" ht="36" spans="1:1">
+      <c r="A197" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" ht="18" spans="1:1">
+      <c r="A198" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" ht="36" spans="1:1">
+      <c r="A199" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="200" ht="36" spans="1:1">
+      <c r="A200" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="201" ht="18" spans="1:1">
+      <c r="A201" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="202" ht="36" spans="1:1">
+      <c r="A202" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="203" ht="18" spans="1:1">
+      <c r="A203" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A104" r:id="rId1" display="你相信存在吗 外星人?" tooltip="https://en.wikipedia.org/wiki/Aliens_(film)"/>
+    <hyperlink ref="A107" r:id="rId2" display="最奇怪的是什么 梦想 你有过吗？" tooltip="https://stayinformedgroup.com/zh-CN/dream-theories-types-examples/"/>
+    <hyperlink ref="A113" r:id="rId3" display="你们是否维护任何假货 社会化媒体 帐户？" tooltip="https://stayinformedgroup.com/zh-CN/best-social-media-examples/"/>
+    <hyperlink ref="A122" r:id="rId4" display="谁是你的不平凡 名人暗恋?" tooltip="https://www.usmagazine.com/celebrity-news/pictures/stars-and-their-celebrity-crushes/"/>
+    <hyperlink ref="A195" r:id="rId5" display="什么是 电影 你偷偷喜欢？" tooltip="https://stayinformedgroup.com/zh-CN/best-movies-about-teachers/"/>
+    <hyperlink ref="A202" r:id="rId6" display="你曾经进去过吗 在学校遇到麻烦，又为了什么？" tooltip="https://stayinformedgroup.com/zh-CN/how-to-deal-with-difficult-students/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>

--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>真心话</t>
   </si>
@@ -241,39 +241,89 @@
     <t>自己最不想要的又是什么？</t>
   </si>
   <si>
-    <t>给房间里的每个人一个反讽的赞美。</t>
+    <t>给对方一个反讽的赞美。</t>
   </si>
   <si>
     <t>男女之间存在友谊吗？</t>
   </si>
   <si>
+    <t>尝试将一只脚的所有脚趾放入口中。</t>
+  </si>
+  <si>
     <t>“我爱你”这三个字，你相信吗？你说过多少次？</t>
   </si>
   <si>
+    <t>尝试将整个拳头放入嘴中。</t>
+  </si>
+  <si>
     <t>喜欢别人对你做什么小动作？</t>
   </si>
   <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种不同的液体混合在一起并喝一口。</t>
+    </r>
+  </si>
+  <si>
     <t>讨厌别人对你做什么动作？</t>
   </si>
   <si>
+    <t>晚上剩下的时间里，把衣服反着穿。</t>
+  </si>
+  <si>
     <t>思想出轨和肉体出轨，哪个更容易接受？</t>
   </si>
   <si>
+    <t>在 60 秒内尽可能多地穿上衣服。</t>
+  </si>
+  <si>
     <t>你会选择什么方式跟对方分手？</t>
   </si>
   <si>
+    <t>尽可能地微笑并保持两分钟。</t>
+  </si>
+  <si>
     <t>你的小癖好是什么？</t>
   </si>
   <si>
+    <t>晚上剩下的时间坐在地板上，不要起身。</t>
+  </si>
+  <si>
     <t>你喜欢裸睡么？</t>
   </si>
   <si>
+    <t>脱掉四件衣服。</t>
+  </si>
+  <si>
     <t>第一次做羞羞的事是什么感觉？</t>
   </si>
   <si>
+    <t>开玩笑地侮辱对方</t>
+  </si>
+  <si>
     <t>如果看到自己最爱的人熟睡在你面前你会做什么？</t>
   </si>
   <si>
+    <t>用舌头把你的名字写在地板上</t>
+  </si>
+  <si>
     <t>过去的一年你最后悔的一件事是什么？</t>
   </si>
   <si>
@@ -406,7 +456,7 @@
     <t>您是否希望家人永远不会发现您的某些事情？</t>
   </si>
   <si>
-    <t>你认为房间里谁的时尚感最差？</t>
+    <t>你认为对方的审美差吗？</t>
   </si>
   <si>
     <t>你有没有在镜子前练习过接吻？</t>
@@ -421,7 +471,45 @@
     <t>找出您觉得最有联系的电视角色。</t>
   </si>
   <si>
-    <t>从 Kris、Kourtney、Kim、Khloé、Kendall 或 Kylie 中选择您最喜欢的。</t>
+    <r>
+      <t>从狗屎、鸟屎、便便、蟑螂、老鼠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方中选择您最喜欢的</t>
+    </r>
   </si>
   <si>
     <t>你有没有结账就离开餐厅的经历？</t>
@@ -430,10 +518,30 @@
     <t>分享您在海滩上度过亲密时刻的经历（如果有）。</t>
   </si>
   <si>
-    <t>你想加入一英里高的俱乐部吗？</t>
-  </si>
-  <si>
-    <t>你会考虑参加像《爱情岛》这样的真人秀节目吗？</t>
+    <r>
+      <t>你想加入淫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+  </si>
+  <si>
+    <t>你会考虑参加像《荒野求生》这样的真人秀节目吗？</t>
   </si>
   <si>
     <t>回想一下你曾经尝试过做的最糟糕的一顿饭。</t>
@@ -448,7 +556,7 @@
     <t>想象一下突然拥有一百万英镑；你会怎么花它？</t>
   </si>
   <si>
-    <t>在僵尸大灾难中，你希望团队中的谁成为你的盟友？</t>
+    <t>在僵尸大灾难中，只有一个面包的你遇到快饿死的对方，你会怎么选择？</t>
   </si>
   <si>
     <t>揭示您曾经追随但现在感到尴尬的时尚趋势。</t>
@@ -1446,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,6 +1569,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1783,8 +1897,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2033,872 +2147,902 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="54" spans="1:2">
+    <row r="31" ht="36" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" ht="54" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" ht="28.5" spans="1:1">
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="36" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="54" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" ht="28.5" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" ht="54" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" ht="72" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" ht="36" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" ht="28.5" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" ht="28.5" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" ht="42.75" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" ht="28.5" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" ht="28.5" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" ht="57" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" ht="28.5" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" ht="28.5" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" ht="28.5" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" ht="28.5" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" ht="28.5" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" ht="28.5" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" ht="28.5" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" ht="28.5" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" ht="36" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" ht="36" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" ht="36" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" ht="36" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" ht="36" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" ht="18" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" ht="36" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" ht="36" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" ht="36" spans="1:1">
-      <c r="A86" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" ht="18" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="87" ht="36" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" ht="18" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" ht="36" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="54" spans="1:1">
-      <c r="A91" s="4" t="s">
-        <v>121</v>
+      <c r="A91" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="92" ht="36" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" ht="36" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" ht="36" spans="1:1">
-      <c r="A94" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" ht="18" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="95" ht="36" spans="1:1">
-      <c r="A95" s="4" t="s">
-        <v>125</v>
+      <c r="A95" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="96" ht="36" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" ht="36" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" ht="54" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" ht="36" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" ht="36" spans="1:1">
-      <c r="A100" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" ht="54" spans="1:1">
+      <c r="A100" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="101" ht="36" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" ht="36" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" ht="18" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" ht="18" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" ht="36" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" ht="36" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" ht="36" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" ht="36" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" ht="36" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" ht="36" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" ht="36" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" ht="36" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" ht="36" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" ht="36" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" ht="36" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" ht="36" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" ht="36" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" ht="36" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" ht="36" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" ht="54" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" ht="36" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" ht="36" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" ht="36" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" ht="36" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" ht="36" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" ht="36" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" ht="36" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" ht="36" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" ht="18" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" ht="18" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" ht="36" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" ht="18" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" ht="36" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" ht="36" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" ht="18" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" ht="36" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" ht="36" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" ht="36" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" ht="36" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" ht="36" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" ht="36" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" ht="18" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" ht="18" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" ht="18" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" ht="18" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" ht="54" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" ht="36" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" ht="18" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" ht="18" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" ht="36" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" ht="18" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" ht="36" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="162" ht="36" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" ht="18" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" ht="18" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" ht="36" spans="1:1">
       <c r="A166" s="4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" ht="36" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" ht="18" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" ht="36" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171" ht="18" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" ht="18" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" ht="36" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" ht="36" spans="1:1">
       <c r="A174" s="4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" ht="18" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" ht="18" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" ht="36" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" ht="36" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" ht="18" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" ht="36" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" ht="36" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="184" ht="36" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" ht="36" spans="1:1">
       <c r="A185" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" ht="18" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="187" ht="36" spans="1:1">
       <c r="A187" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" ht="36" spans="1:1">
       <c r="A188" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="189" ht="18" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190" ht="36" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" ht="18" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="192" ht="18" spans="1:1">
       <c r="A192" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="193" ht="36" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="194" ht="36" spans="1:1">
       <c r="A194" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="195" ht="18" spans="1:1">
       <c r="A195" s="4" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" ht="36" spans="1:1">
       <c r="A196" s="4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="197" ht="36" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" ht="18" spans="1:1">
       <c r="A198" s="4" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" ht="36" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" ht="36" spans="1:1">
       <c r="A200" s="4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" ht="18" spans="1:1">
       <c r="A201" s="4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" ht="36" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" ht="18" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -11,12 +11,15 @@
     <sheet name="回复表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卡片内容!$A$1:$B$203</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="316">
   <si>
     <t>真心话</t>
   </si>
@@ -24,46 +27,70 @@
     <t>大冒险</t>
   </si>
   <si>
+    <t>毒鸡汤</t>
+  </si>
+  <si>
     <t>你几岁了</t>
   </si>
   <si>
     <t>脱件衣服</t>
   </si>
   <si>
+    <t>人生就像一场马拉松，跑得慢也未必能看到终点。</t>
+  </si>
+  <si>
     <t>谈过几个男朋友/女朋友</t>
   </si>
   <si>
     <t>穿件衣服</t>
   </si>
   <si>
+    <t>不要相信自己很特别，世界上有很多人都和你一样平凡。</t>
+  </si>
+  <si>
     <t>最满意自己身体哪一个部位</t>
   </si>
   <si>
     <t>做10个俯卧撑</t>
   </si>
   <si>
+    <t>努力不一定能成功，但不努力肯定不会成功。</t>
+  </si>
+  <si>
     <t>喜欢喜欢你的还是喜欢你喜欢的</t>
   </si>
   <si>
     <t>做10个上下蹲</t>
   </si>
   <si>
+    <t>梦想是用来辜负的，现实才是唯一的真相。</t>
+  </si>
+  <si>
     <t>自慰频率怎么样！</t>
   </si>
   <si>
     <t>尝试兼顾对方选择做三件事。</t>
   </si>
   <si>
+    <t>失败是成功之母，但成功却是孤独的父亲。</t>
+  </si>
+  <si>
     <t>如果可以让时间暂停，你会做些什么？</t>
   </si>
   <si>
     <t>分享一下你手机里最尴尬的照片。</t>
   </si>
   <si>
+    <t>幸福是短暂的，痛苦才是人生的常态。</t>
+  </si>
+  <si>
     <t>如果网恋奔现遇到“照骗”，你会怎么做？</t>
   </si>
   <si>
     <t>显示您最近发短信的五个人以及消息内容。</t>
+  </si>
+  <si>
+    <t>生活就像一场游戏，最终的赢家往往不在乎规则。</t>
   </si>
   <si>
     <t>你是否幻想过，在某一刻，被迫发生性关系？</t>
@@ -92,46 +119,70 @@
     </r>
   </si>
   <si>
+    <t>与其期待明天，不如享受今天的失落。</t>
+  </si>
+  <si>
     <t>你经历(做)过最伤心/开心/羞耻/变态的一件事是什么？</t>
   </si>
   <si>
     <t>做100个深蹲。</t>
   </si>
   <si>
+    <t>成功的人都很忙，失败的人更忙于抱怨。</t>
+  </si>
+  <si>
     <t>最满意自己身体哪个部位？/你觉得自己身体哪个部位最性感？</t>
   </si>
   <si>
     <t>允许对方查看您的微信私信。</t>
   </si>
   <si>
+    <t>任何努力都可能被忽视，尤其是在结果不如人意时。</t>
+  </si>
+  <si>
     <t>你多少岁了？</t>
   </si>
   <si>
     <t>显示您的屏幕时间。</t>
   </si>
   <si>
+    <t>笑到最后的人，往往是最后一个笑的人。</t>
+  </si>
+  <si>
     <t>你上班还是上学？</t>
   </si>
   <si>
     <t>将三个冰块含在嘴里，直到它们融化。</t>
   </si>
   <si>
+    <t>不要指望别人会理解你，连你自己都不一定理解。</t>
+  </si>
+  <si>
     <t>你哪里人啊？</t>
   </si>
   <si>
     <t>大声说出你想到的第一个词。</t>
   </si>
   <si>
+    <t>每个人都在努力活得像个大人，但内心依然是个孩子。</t>
+  </si>
+  <si>
     <t>你交过几个男朋友？</t>
   </si>
   <si>
     <t>闭上眼睛，直到再次轮到你的大冒险。</t>
   </si>
   <si>
+    <t>你以为你很努力，其实只是习惯了自我安慰。</t>
+  </si>
+  <si>
     <t>你遇到过最变态的人是怎么样的？</t>
   </si>
   <si>
     <t>向对方展示你房间里面的东西。</t>
+  </si>
+  <si>
+    <t>生活很简单，复杂的是我们自己的想法。</t>
   </si>
   <si>
     <t>你遇到过最心动的人是怎么样的？</t>
@@ -160,100 +211,151 @@
     </r>
   </si>
   <si>
+    <t>快乐是一种短暂的麻醉，麻木才是真实的状态。</t>
+  </si>
+  <si>
     <t>你做过吗？</t>
   </si>
   <si>
     <t>不用手吃零食。</t>
   </si>
   <si>
+    <t>别相信时间能治愈一切，时间只会让伤口愈合得更慢。</t>
+  </si>
+  <si>
     <t>后悔第一次给当初的他吗？</t>
   </si>
   <si>
     <t>倒立劈叉只要倒立</t>
   </si>
   <si>
+    <t>你永远无法左右别人的看法，但可以选择无视。</t>
+  </si>
+  <si>
     <t>说说你的初恋？</t>
   </si>
   <si>
     <t>分享抖音视频草稿</t>
   </si>
   <si>
+    <t>生活就像一杯水，平淡无味才是常态。</t>
+  </si>
+  <si>
     <t>能接受没有感情的性吗？</t>
   </si>
   <si>
     <t>显示您最喜欢的自己的照片。</t>
   </si>
   <si>
+    <t>总有一天，你会发现自己曾经看重的一切都不过如此。</t>
+  </si>
+  <si>
     <t>喜欢什么类型的男孩子/女孩子？</t>
   </si>
   <si>
     <t>在晚上剩下的时间里，用两只手拿着你的饮料。</t>
   </si>
   <si>
+    <t>如果你能把所有的希望都寄托在明天，那你今天就活得太累。</t>
+  </si>
+  <si>
     <t>发生过最尴尬的事情是什么？</t>
   </si>
   <si>
     <t>不照镜子化妆，并在比赛时保持这种状态。</t>
   </si>
   <si>
+    <t>你的梦想就像泡沫，破裂后只剩空虚。</t>
+  </si>
+  <si>
     <t>无聊的时候想干什么？</t>
   </si>
   <si>
     <t>同意接下来 1 分钟内的所有内容。</t>
   </si>
   <si>
+    <t>期待会让你失望，放弃会让你解脱。</t>
+  </si>
+  <si>
     <t>更在意过程还是结果？为什么？</t>
   </si>
   <si>
     <t>分享某人的秘密，不透露他们的名字。</t>
   </si>
   <si>
+    <t>人生就像一场赌博，赌注越大，输得也越惨。</t>
+  </si>
+  <si>
     <t>如果给你两颗药丸，一颗蓝药丸可以让你获得你想要的生活，但是是虚幻的；一颗红药丸可以让你看见真实的世界，但是是残酷的。你会选择哪颗药丸？</t>
   </si>
   <si>
     <t>让对方为你设计发型，并在游戏中保持这种发型。</t>
   </si>
   <si>
+    <t>幸福的人生，不过是一场精致的骗局。</t>
+  </si>
+  <si>
     <t>最喜欢哪个颜色的内衣？</t>
   </si>
   <si>
     <t>接下来的 10 分钟内只能小声说话。</t>
   </si>
   <si>
+    <t>不要指望世界会为你改变，改变自己也许更麻烦。</t>
+  </si>
+  <si>
     <t>今天穿什么颜色的内衣？</t>
   </si>
   <si>
     <t>创作一首关于你最喜欢的书的说唱。</t>
   </si>
   <si>
+    <t>无论如何，生活总是要继续，你也只能继续忍耐。</t>
+  </si>
+  <si>
     <t>会期待一夜情吗？</t>
   </si>
   <si>
     <t>做50个俯卧撑。</t>
   </si>
   <si>
+    <t>追求完美的人，往往是最不完美的。</t>
+  </si>
+  <si>
     <t>自己拥有的最宝贵的东西是什么？</t>
   </si>
   <si>
     <t>预测五年后对方会做什么。</t>
   </si>
   <si>
+    <t>失败不是因为不努力，而是因为你没有选择对的目标。</t>
+  </si>
+  <si>
     <t>自己最不想要的又是什么？</t>
   </si>
   <si>
     <t>给对方一个反讽的赞美。</t>
   </si>
   <si>
+    <t>你的付出不一定有回报，但你的懒惰一定会被惩罚。</t>
+  </si>
+  <si>
     <t>男女之间存在友谊吗？</t>
   </si>
   <si>
     <t>尝试将一只脚的所有脚趾放入口中。</t>
   </si>
   <si>
+    <t>你拼命工作，最后得到的也许只是个空虚的头衔。</t>
+  </si>
+  <si>
     <t>“我爱你”这三个字，你相信吗？你说过多少次？</t>
   </si>
   <si>
     <t>尝试将整个拳头放入嘴中。</t>
+  </si>
+  <si>
+    <t>失去的东西永远无法再回到你身边。</t>
   </si>
   <si>
     <t>喜欢别人对你做什么小动作？</t>
@@ -282,142 +384,259 @@
     </r>
   </si>
   <si>
+    <t>生活的意义往往在于寻找意义的过程。</t>
+  </si>
+  <si>
     <t>讨厌别人对你做什么动作？</t>
   </si>
   <si>
     <t>晚上剩下的时间里，把衣服反着穿。</t>
   </si>
   <si>
+    <t>你以为你能控制一切，其实一切都在控制你。</t>
+  </si>
+  <si>
     <t>思想出轨和肉体出轨，哪个更容易接受？</t>
   </si>
   <si>
     <t>在 60 秒内尽可能多地穿上衣服。</t>
   </si>
   <si>
+    <t>成长就是一个不断被打击的过程，谁还在意快乐？</t>
+  </si>
+  <si>
     <t>你会选择什么方式跟对方分手？</t>
   </si>
   <si>
     <t>尽可能地微笑并保持两分钟。</t>
   </si>
   <si>
+    <t>有些事情只适合在心里藏着，外面说了也没意义。</t>
+  </si>
+  <si>
     <t>你的小癖好是什么？</t>
   </si>
   <si>
     <t>晚上剩下的时间坐在地板上，不要起身。</t>
   </si>
   <si>
+    <t>你以为的幸福，往往只是别人的假象。</t>
+  </si>
+  <si>
     <t>你喜欢裸睡么？</t>
   </si>
   <si>
     <t>脱掉四件衣服。</t>
   </si>
   <si>
+    <t>人生就像开车，前方的路总是看不清。</t>
+  </si>
+  <si>
     <t>第一次做羞羞的事是什么感觉？</t>
   </si>
   <si>
     <t>开玩笑地侮辱对方</t>
   </si>
   <si>
+    <t>每个人的背后都有不为人知的辛酸。</t>
+  </si>
+  <si>
     <t>如果看到自己最爱的人熟睡在你面前你会做什么？</t>
   </si>
   <si>
     <t>用舌头把你的名字写在地板上</t>
   </si>
   <si>
+    <t>有些路只能一个人走，尽管孤独但也无可奈何。</t>
+  </si>
+  <si>
     <t>过去的一年你最后悔的一件事是什么？</t>
   </si>
   <si>
+    <t>生活不会因为你选择了努力而改变什么。</t>
+  </si>
+  <si>
     <t>如果世上真的有阿拉丁神灯，你最想实现的三个愿望是什么？</t>
   </si>
   <si>
+    <t>理想与现实的距离，往往是最让人心痛的地方。</t>
+  </si>
+  <si>
     <t>你最害怕哪三件事？</t>
   </si>
   <si>
+    <t>你永远不知道明天和意外哪个会先来。</t>
+  </si>
+  <si>
     <t>如果有一天，你生命中最贵重的东西离你而去了，你会怎么办？</t>
   </si>
   <si>
+    <t>快乐是一种奢侈，痛苦才是生活的常态。</t>
+  </si>
+  <si>
     <t>如果让你选择做一个电影中的角色，你会选谁呢？</t>
   </si>
   <si>
+    <t>人生没有回头路，后悔只会让你更加痛苦。</t>
+  </si>
+  <si>
     <t>你在乎别人看你的眼光吗,会为了众人的反对放弃自己想要的东西或人吗？</t>
   </si>
   <si>
+    <t>有时候，沉默是对自己最好的保护。</t>
+  </si>
+  <si>
     <t>目前最大的愿望是什么，有为此做出哪些行动？</t>
   </si>
   <si>
+    <t>你能把一切都看开，但伤痛却难以释怀。</t>
+  </si>
+  <si>
     <t>如果能预知未来，你最不希望看见的是什么？</t>
   </si>
   <si>
+    <t>生活的美好，往往只是掩盖了不堪的真相。</t>
+  </si>
+  <si>
     <t>你最不开心的时候会有什么表现？</t>
   </si>
   <si>
+    <t>不要相信那些“永远”，因为永远很可能只是一瞬。</t>
+  </si>
+  <si>
     <t>怎样看待性？</t>
   </si>
   <si>
+    <t>每一次的坚持，都是对自己选择的又一次放弃。</t>
+  </si>
+  <si>
     <t>你应该知道，我们两性格还算合拍，你长得又很漂亮，那么突然有一天我对你说我爱上你了，你怎么办？</t>
   </si>
   <si>
+    <t>幸福的背后，必定是无数不为人知的苦楚。</t>
+  </si>
+  <si>
     <t>你有没有在和另一半交往期间，在外面“偷吃”？</t>
   </si>
   <si>
+    <t>人生就像一场戏，演员总是要面具，但观众却不在意。</t>
+  </si>
+  <si>
     <t>分享一件做的蠢事</t>
   </si>
   <si>
+    <t>不是所有的努力都有意义，有时候只是浪费时间。</t>
+  </si>
+  <si>
     <t>理想中30岁的样子</t>
   </si>
   <si>
+    <t>不管你多么努力，生活总会给你开个玩笑。</t>
+  </si>
+  <si>
     <t>去你喜欢的人家里，想拉肚子怎么办？</t>
   </si>
   <si>
+    <t>生活是一种习惯，痛苦才是真正的常态。</t>
+  </si>
+  <si>
     <t>最后一次发自内心的笑是什么时候？</t>
   </si>
   <si>
+    <t>理想是好事，但现实往往让人失望。</t>
+  </si>
+  <si>
     <t>说你最喜欢的一部电影？</t>
   </si>
   <si>
+    <t>你以为的坚持，可能只是固执罢了。</t>
+  </si>
+  <si>
     <t>第一次爱的人对你产生过什么影响？</t>
   </si>
   <si>
+    <t>永远不要把希望寄托在别人身上，失望总是伴随而来。</t>
+  </si>
+  <si>
     <t>对你而言，感情和友情哪个比较重要？</t>
   </si>
   <si>
+    <t>生活的意义就是不断地寻找意义，然后失望。</t>
+  </si>
+  <si>
     <t>第一个喜欢的异性叫什么名字？</t>
   </si>
   <si>
+    <t>不要期待亲情会永远存在，很多时候它也会变得脆弱。</t>
+  </si>
+  <si>
     <t>和多少异性有过非恋爱的暧昧关系？</t>
   </si>
   <si>
     <t>认同没有性的爱情和没有爱的性吗？</t>
   </si>
   <si>
+    <t>有些事情，你努力了也未必能得到。</t>
+  </si>
+  <si>
     <t>对你来说最容易分手的原因是什么？</t>
   </si>
   <si>
+    <t>不要期待未来会更好，可能它只会更糟。</t>
+  </si>
+  <si>
     <t>你对异性朋友做的最出格的一件事是什么事呢？</t>
   </si>
   <si>
+    <t>有些错误是无法弥补的，别再纠结。</t>
+  </si>
+  <si>
     <t>从小到大最丢脸出丑的事情是什么？</t>
   </si>
   <si>
+    <t>生活就像一面镜子，你越是用力，反弹越会痛。</t>
+  </si>
+  <si>
     <t>如果你爱的人不爱你怎么办？</t>
   </si>
   <si>
+    <t>笑是为了掩饰内心的苦涩，没人能懂你的悲伤。</t>
+  </si>
+  <si>
     <t>用四个字形容你现在的生活状态？</t>
   </si>
   <si>
+    <t>每个成功的背后，都是无数个夜晚的泪水。</t>
+  </si>
+  <si>
     <t>每天睡觉前都会想起的人是谁？</t>
   </si>
   <si>
+    <t>生活不会因为你的努力而改变，改变的只是你自己。</t>
+  </si>
+  <si>
     <t>你的初恋对象是谁？</t>
   </si>
   <si>
+    <t>有些希望如烟花般绚烂，却瞬间消散。</t>
+  </si>
+  <si>
     <t>说出你撒过的最严重的谎？</t>
   </si>
   <si>
+    <t>人生的路途总是崎岖不平，谁也不能保证一帆风顺。</t>
+  </si>
+  <si>
     <t>你最难以释怀的事情是什么？</t>
   </si>
   <si>
+    <t>有些梦想注定只能停留在心底。</t>
+  </si>
+  <si>
     <t>你愿意为爱情牺牲到什么程度？</t>
+  </si>
+  <si>
+    <t>所有的努力终究是为了找到一个归宿，但归宿总是遥不可及。</t>
   </si>
   <si>
     <t>如果你有预知能力，你最不想看到的是什么？</t>
@@ -1895,1157 +2114,1383 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.7583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="57" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="71.25" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="72" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="36" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="57" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="36" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="57" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="54" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="57" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="54" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="54" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="54" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="36" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="57" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" ht="36" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="57" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="36" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="57" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" ht="54" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="57" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="72" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="72" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" ht="72" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" ht="72" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" ht="54" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" ht="54" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="57" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" ht="72" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="72" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" ht="54" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" ht="57" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" ht="54" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" ht="57" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" ht="36" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" ht="42.75" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" ht="36" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" ht="57" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" ht="36" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" ht="57" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" ht="54" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" ht="57" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" ht="36" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" ht="42.75" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" ht="54" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" ht="54" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" ht="54" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" ht="57" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" ht="54" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" ht="57" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" ht="54" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" ht="57" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" ht="72" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" ht="72" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" ht="36" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" ht="42.75" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" ht="18" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" ht="42.75" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" ht="57" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" ht="28.5" spans="1:1">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" ht="42.75" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" ht="28.5" spans="1:1">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" ht="57" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" ht="42.75" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" ht="28.5" spans="1:1">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" ht="42.75" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" ht="28.5" spans="1:1">
+        <v>129</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" ht="57" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" ht="42.75" spans="1:1">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" ht="42.75" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" ht="28.5" spans="1:1">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" ht="42.75" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" ht="28.5" spans="1:1">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" ht="57" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>137</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" ht="57" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" ht="57" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" ht="57" spans="1:1">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" ht="57" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" ht="28.5" spans="1:1">
+        <v>143</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" ht="57" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" ht="57" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" ht="57" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" ht="28.5" spans="1:1">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" ht="42.75" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" ht="28.5" spans="1:1">
+        <v>151</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" ht="42.75" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>153</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" ht="42.75" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" ht="28.5" spans="1:1">
+        <v>155</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" ht="57" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" ht="28.5" spans="1:1">
+        <v>157</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" ht="57" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>159</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" ht="57" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" ht="28.5" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" ht="57" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" ht="28.5" spans="1:1">
+        <v>163</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" ht="42.75" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" ht="28.5" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" ht="42.75" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" ht="28.5" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" ht="42.75" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" ht="28.5" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" ht="57" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" ht="57" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" ht="57" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" ht="57" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" ht="42.75" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" ht="57" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" ht="42.75" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" ht="71.25" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" ht="28.5" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" ht="57" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>114</v>
+        <v>186</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" ht="28.5" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" ht="28.5" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" ht="36" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" ht="36" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" ht="36" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" ht="36" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" ht="36" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" ht="18" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" ht="36" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" ht="36" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" ht="18" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" ht="36" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" ht="18" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" ht="36" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" ht="54" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" ht="36" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" ht="36" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" ht="18" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" ht="36" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" ht="36" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" ht="36" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" ht="54" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" ht="36" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:1">
       <c r="A100" s="3" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" ht="36" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" ht="36" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" ht="18" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" ht="18" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" ht="36" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" ht="36" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" ht="36" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" ht="36" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" ht="36" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" ht="36" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" ht="36" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" ht="36" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" ht="36" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" ht="36" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" ht="36" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" ht="36" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" ht="36" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" ht="36" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" ht="36" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" ht="54" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" ht="36" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" ht="36" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" ht="36" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" ht="36" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" ht="36" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" ht="36" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" ht="36" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" ht="36" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" ht="18" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" ht="18" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" ht="36" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" ht="18" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" ht="36" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" ht="36" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" ht="18" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" ht="36" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" ht="36" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" ht="36" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" ht="36" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" ht="36" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" ht="36" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" ht="18" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" ht="18" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" ht="18" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" ht="18" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" ht="54" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" ht="36" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
     </row>
     <row r="157" ht="18" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" ht="18" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" ht="36" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" ht="18" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" ht="36" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" ht="36" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" ht="18" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" ht="18" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" ht="36" spans="1:1">
       <c r="A166" s="4" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" ht="36" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
     </row>
     <row r="168" ht="18" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" ht="36" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" ht="18" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
     </row>
     <row r="172" ht="18" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
     </row>
     <row r="173" ht="36" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" ht="36" spans="1:1">
       <c r="A174" s="4" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" ht="18" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
     </row>
     <row r="176" ht="18" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
     </row>
     <row r="177" ht="36" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" ht="36" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" ht="18" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" ht="36" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
     <row r="182" ht="36" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" ht="36" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="185" ht="36" spans="1:1">
       <c r="A185" s="4" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" ht="18" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187" ht="36" spans="1:1">
       <c r="A187" s="4" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" ht="36" spans="1:1">
       <c r="A188" s="4" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" ht="18" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" ht="36" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" ht="18" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" ht="18" spans="1:1">
       <c r="A192" s="4" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" ht="36" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" ht="36" spans="1:1">
       <c r="A194" s="4" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
     </row>
     <row r="195" ht="18" spans="1:1">
       <c r="A195" s="4" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
     </row>
     <row r="196" ht="36" spans="1:1">
       <c r="A196" s="4" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" ht="36" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" ht="18" spans="1:1">
       <c r="A198" s="4" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="199" ht="36" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
     </row>
     <row r="200" ht="36" spans="1:1">
       <c r="A200" s="4" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" ht="18" spans="1:1">
       <c r="A201" s="4" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" ht="36" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" ht="18" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B203">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A104" r:id="rId1" display="你相信存在吗 外星人?" tooltip="https://en.wikipedia.org/wiki/Aliens_(film)"/>
     <hyperlink ref="A107" r:id="rId2" display="最奇怪的是什么 梦想 你有过吗？" tooltip="https://stayinformedgroup.com/zh-CN/dream-theories-types-examples/"/>

--- a/content/小玩意/真心话大冒险/真心话大冒险.xlsx
+++ b/content/小玩意/真心话大冒险/真心话大冒险.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="395">
   <si>
     <t>真心话</t>
   </si>
@@ -30,6 +30,9 @@
     <t>毒鸡汤</t>
   </si>
   <si>
+    <t>土味情话</t>
+  </si>
+  <si>
     <t>你几岁了</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
     <t>人生就像一场马拉松，跑得慢也未必能看到终点。</t>
   </si>
   <si>
+    <t>你是我心中的一首歌，旋律一直在心里回响。</t>
+  </si>
+  <si>
     <t>谈过几个男朋友/女朋友</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t>不要相信自己很特别，世界上有很多人都和你一样平凡。</t>
   </si>
   <si>
+    <t>喜欢你就像喜欢早上第一杯咖啡，无法抵挡。</t>
+  </si>
+  <si>
     <t>最满意自己身体哪一个部位</t>
   </si>
   <si>
@@ -57,6 +66,9 @@
     <t>努力不一定能成功，但不努力肯定不会成功。</t>
   </si>
   <si>
+    <t>你是我的牛奶，我是你的麦片，缺了你我不完整。</t>
+  </si>
+  <si>
     <t>喜欢喜欢你的还是喜欢你喜欢的</t>
   </si>
   <si>
@@ -66,6 +78,9 @@
     <t>梦想是用来辜负的，现实才是唯一的真相。</t>
   </si>
   <si>
+    <t>你是我心中最美的风景，我愿意永远驻足观赏。</t>
+  </si>
+  <si>
     <t>自慰频率怎么样！</t>
   </si>
   <si>
@@ -75,6 +90,9 @@
     <t>失败是成功之母，但成功却是孤独的父亲。</t>
   </si>
   <si>
+    <t>如果你是星星，那我愿意做那夜空。</t>
+  </si>
+  <si>
     <t>如果可以让时间暂停，你会做些什么？</t>
   </si>
   <si>
@@ -84,6 +102,9 @@
     <t>幸福是短暂的，痛苦才是人生的常态。</t>
   </si>
   <si>
+    <t>你是我的兔子，我是你的胡萝卜，永不分离。</t>
+  </si>
+  <si>
     <t>如果网恋奔现遇到“照骗”，你会怎么做？</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
   </si>
   <si>
     <t>生活就像一场游戏，最终的赢家往往不在乎规则。</t>
+  </si>
+  <si>
+    <t>有你在的地方，才是我最想去的地方。</t>
   </si>
   <si>
     <t>你是否幻想过，在某一刻，被迫发生性关系？</t>
@@ -122,6 +146,9 @@
     <t>与其期待明天，不如享受今天的失落。</t>
   </si>
   <si>
+    <t>你是我的小情绪，时刻影响着我的心情。</t>
+  </si>
+  <si>
     <t>你经历(做)过最伤心/开心/羞耻/变态的一件事是什么？</t>
   </si>
   <si>
@@ -131,6 +158,9 @@
     <t>成功的人都很忙，失败的人更忙于抱怨。</t>
   </si>
   <si>
+    <t>你是我心中的那颗糖，永远甜蜜。</t>
+  </si>
+  <si>
     <t>最满意自己身体哪个部位？/你觉得自己身体哪个部位最性感？</t>
   </si>
   <si>
@@ -140,6 +170,9 @@
     <t>任何努力都可能被忽视，尤其是在结果不如人意时。</t>
   </si>
   <si>
+    <t>只要有你在，我的笑容就不会消失。</t>
+  </si>
+  <si>
     <t>你多少岁了？</t>
   </si>
   <si>
@@ -149,6 +182,9 @@
     <t>笑到最后的人，往往是最后一个笑的人。</t>
   </si>
   <si>
+    <t>如果可以的话，我想和你一起变老。</t>
+  </si>
+  <si>
     <t>你上班还是上学？</t>
   </si>
   <si>
@@ -158,6 +194,9 @@
     <t>不要指望别人会理解你，连你自己都不一定理解。</t>
   </si>
   <si>
+    <t>你是我生命中的意外惊喜，无法预料却如此美好。</t>
+  </si>
+  <si>
     <t>你哪里人啊？</t>
   </si>
   <si>
@@ -167,6 +206,9 @@
     <t>每个人都在努力活得像个大人，但内心依然是个孩子。</t>
   </si>
   <si>
+    <t>你是我眼中的星星，闪烁着温暖的光。</t>
+  </si>
+  <si>
     <t>你交过几个男朋友？</t>
   </si>
   <si>
@@ -176,6 +218,9 @@
     <t>你以为你很努力，其实只是习惯了自我安慰。</t>
   </si>
   <si>
+    <t>我想把你放在我的口袋里，随时可以拿出来看看。</t>
+  </si>
+  <si>
     <t>你遇到过最变态的人是怎么样的？</t>
   </si>
   <si>
@@ -183,6 +228,9 @@
   </si>
   <si>
     <t>生活很简单，复杂的是我们自己的想法。</t>
+  </si>
+  <si>
+    <t>只要和你在一起，做什么都是快乐的。</t>
   </si>
   <si>
     <t>你遇到过最心动的人是怎么样的？</t>
@@ -214,6 +262,9 @@
     <t>快乐是一种短暂的麻醉，麻木才是真实的状态。</t>
   </si>
   <si>
+    <t>你就像那杯热巧克力，温暖了我的心。</t>
+  </si>
+  <si>
     <t>你做过吗？</t>
   </si>
   <si>
@@ -223,6 +274,9 @@
     <t>别相信时间能治愈一切，时间只会让伤口愈合得更慢。</t>
   </si>
   <si>
+    <t>我想做你的盖世英雄，保护你一辈子。</t>
+  </si>
+  <si>
     <t>后悔第一次给当初的他吗？</t>
   </si>
   <si>
@@ -232,6 +286,9 @@
     <t>你永远无法左右别人的看法，但可以选择无视。</t>
   </si>
   <si>
+    <t>见到你之后，我才明白什么叫做心动。</t>
+  </si>
+  <si>
     <t>说说你的初恋？</t>
   </si>
   <si>
@@ -241,6 +298,9 @@
     <t>生活就像一杯水，平淡无味才是常态。</t>
   </si>
   <si>
+    <t>你是我的小秘密，永远藏在心里。</t>
+  </si>
+  <si>
     <t>能接受没有感情的性吗？</t>
   </si>
   <si>
@@ -250,6 +310,9 @@
     <t>总有一天，你会发现自己曾经看重的一切都不过如此。</t>
   </si>
   <si>
+    <t>你在我心中是一道光，照亮了我的未来。</t>
+  </si>
+  <si>
     <t>喜欢什么类型的男孩子/女孩子？</t>
   </si>
   <si>
@@ -259,6 +322,9 @@
     <t>如果你能把所有的希望都寄托在明天，那你今天就活得太累。</t>
   </si>
   <si>
+    <t>如果你是花，我愿意当蜜蜂，永远围绕着你。</t>
+  </si>
+  <si>
     <t>发生过最尴尬的事情是什么？</t>
   </si>
   <si>
@@ -268,6 +334,9 @@
     <t>你的梦想就像泡沫，破裂后只剩空虚。</t>
   </si>
   <si>
+    <t>你让我想起了我的未来，未来就是你。</t>
+  </si>
+  <si>
     <t>无聊的时候想干什么？</t>
   </si>
   <si>
@@ -277,6 +346,9 @@
     <t>期待会让你失望，放弃会让你解脱。</t>
   </si>
   <si>
+    <t>你是我灵魂的另一半，缺了你就不完整。</t>
+  </si>
+  <si>
     <t>更在意过程还是结果？为什么？</t>
   </si>
   <si>
@@ -286,6 +358,9 @@
     <t>人生就像一场赌博，赌注越大，输得也越惨。</t>
   </si>
   <si>
+    <t>只要有你在，生活就充满了色彩。</t>
+  </si>
+  <si>
     <t>如果给你两颗药丸，一颗蓝药丸可以让你获得你想要的生活，但是是虚幻的；一颗红药丸可以让你看见真实的世界，但是是残酷的。你会选择哪颗药丸？</t>
   </si>
   <si>
@@ -295,6 +370,9 @@
     <t>幸福的人生，不过是一场精致的骗局。</t>
   </si>
   <si>
+    <t>你是我生命中的调味品，没有你太乏味。</t>
+  </si>
+  <si>
     <t>最喜欢哪个颜色的内衣？</t>
   </si>
   <si>
@@ -304,6 +382,9 @@
     <t>不要指望世界会为你改变，改变自己也许更麻烦。</t>
   </si>
   <si>
+    <t>你的微笑是我一天的动力，想要永远看到。</t>
+  </si>
+  <si>
     <t>今天穿什么颜色的内衣？</t>
   </si>
   <si>
@@ -313,6 +394,9 @@
     <t>无论如何，生活总是要继续，你也只能继续忍耐。</t>
   </si>
   <si>
+    <t>你就像我的氧气，离不开你我会窒息。</t>
+  </si>
+  <si>
     <t>会期待一夜情吗？</t>
   </si>
   <si>
@@ -322,6 +406,9 @@
     <t>追求完美的人，往往是最不完美的。</t>
   </si>
   <si>
+    <t>我愿意为你做任何事情，只为看到你开心。</t>
+  </si>
+  <si>
     <t>自己拥有的最宝贵的东西是什么？</t>
   </si>
   <si>
@@ -331,6 +418,9 @@
     <t>失败不是因为不努力，而是因为你没有选择对的目标。</t>
   </si>
   <si>
+    <t>你是我心中最甜的那一块，无法替代。</t>
+  </si>
+  <si>
     <t>自己最不想要的又是什么？</t>
   </si>
   <si>
@@ -340,6 +430,9 @@
     <t>你的付出不一定有回报，但你的懒惰一定会被惩罚。</t>
   </si>
   <si>
+    <t>在我的心里，你永远是最特别的那一个。</t>
+  </si>
+  <si>
     <t>男女之间存在友谊吗？</t>
   </si>
   <si>
@@ -349,6 +442,9 @@
     <t>你拼命工作，最后得到的也许只是个空虚的头衔。</t>
   </si>
   <si>
+    <t>你就是我心中的云朵，柔软而美好。</t>
+  </si>
+  <si>
     <t>“我爱你”这三个字，你相信吗？你说过多少次？</t>
   </si>
   <si>
@@ -356,6 +452,9 @@
   </si>
   <si>
     <t>失去的东西永远无法再回到你身边。</t>
+  </si>
+  <si>
+    <t>你是我生活中的小幸运，时时刻刻都想念。</t>
   </si>
   <si>
     <t>喜欢别人对你做什么小动作？</t>
@@ -387,6 +486,9 @@
     <t>生活的意义往往在于寻找意义的过程。</t>
   </si>
   <si>
+    <t>我想和你一起走过每一个春夏秋冬。</t>
+  </si>
+  <si>
     <t>讨厌别人对你做什么动作？</t>
   </si>
   <si>
@@ -396,6 +498,9 @@
     <t>你以为你能控制一切，其实一切都在控制你。</t>
   </si>
   <si>
+    <t>你就像那颗星星，照亮了我黑暗的夜空。</t>
+  </si>
+  <si>
     <t>思想出轨和肉体出轨，哪个更容易接受？</t>
   </si>
   <si>
@@ -405,6 +510,9 @@
     <t>成长就是一个不断被打击的过程，谁还在意快乐？</t>
   </si>
   <si>
+    <t>我愿意做你的小船，载着你驶向幸福的彼岸。</t>
+  </si>
+  <si>
     <t>你会选择什么方式跟对方分手？</t>
   </si>
   <si>
@@ -414,6 +522,9 @@
     <t>有些事情只适合在心里藏着，外面说了也没意义。</t>
   </si>
   <si>
+    <t>你在我心中就像一颗珍珠，独一无二。</t>
+  </si>
+  <si>
     <t>你的小癖好是什么？</t>
   </si>
   <si>
@@ -423,6 +534,9 @@
     <t>你以为的幸福，往往只是别人的假象。</t>
   </si>
   <si>
+    <t>你是我心中的那首诗，永远吟唱不衰。</t>
+  </si>
+  <si>
     <t>你喜欢裸睡么？</t>
   </si>
   <si>
@@ -432,6 +546,9 @@
     <t>人生就像开车，前方的路总是看不清。</t>
   </si>
   <si>
+    <t>我愿意陪你走到世界的尽头，只要有你就好。</t>
+  </si>
+  <si>
     <t>第一次做羞羞的事是什么感觉？</t>
   </si>
   <si>
@@ -441,6 +558,9 @@
     <t>每个人的背后都有不为人知的辛酸。</t>
   </si>
   <si>
+    <t>你是我生命中的阳光，照亮了每个角落。</t>
+  </si>
+  <si>
     <t>如果看到自己最爱的人熟睡在你面前你会做什么？</t>
   </si>
   <si>
@@ -450,211 +570,328 @@
     <t>有些路只能一个人走，尽管孤独但也无可奈何。</t>
   </si>
   <si>
+    <t>只要你在，我就觉得很满足。</t>
+  </si>
+  <si>
     <t>过去的一年你最后悔的一件事是什么？</t>
   </si>
   <si>
     <t>生活不会因为你选择了努力而改变什么。</t>
   </si>
   <si>
+    <t>你就是我心中的那道光，永远闪烁。</t>
+  </si>
+  <si>
     <t>如果世上真的有阿拉丁神灯，你最想实现的三个愿望是什么？</t>
   </si>
   <si>
     <t>理想与现实的距离，往往是最让人心痛的地方。</t>
   </si>
   <si>
+    <t>和你在一起就像做梦，梦里都是你。</t>
+  </si>
+  <si>
     <t>你最害怕哪三件事？</t>
   </si>
   <si>
     <t>你永远不知道明天和意外哪个会先来。</t>
   </si>
   <si>
+    <t>你是我心中最美的旋律，永远不想停止。</t>
+  </si>
+  <si>
     <t>如果有一天，你生命中最贵重的东西离你而去了，你会怎么办？</t>
   </si>
   <si>
     <t>快乐是一种奢侈，痛苦才是生活的常态。</t>
   </si>
   <si>
+    <t>你让我明白了什么叫做真正的爱情。</t>
+  </si>
+  <si>
     <t>如果让你选择做一个电影中的角色，你会选谁呢？</t>
   </si>
   <si>
     <t>人生没有回头路，后悔只会让你更加痛苦。</t>
   </si>
   <si>
+    <t>你的笑容是我最爱的风景。</t>
+  </si>
+  <si>
     <t>你在乎别人看你的眼光吗,会为了众人的反对放弃自己想要的东西或人吗？</t>
   </si>
   <si>
     <t>有时候，沉默是对自己最好的保护。</t>
   </si>
   <si>
+    <t>我愿意为你摘星星，只为换你一个笑容。</t>
+  </si>
+  <si>
     <t>目前最大的愿望是什么，有为此做出哪些行动？</t>
   </si>
   <si>
     <t>你能把一切都看开，但伤痛却难以释怀。</t>
   </si>
   <si>
+    <t>你是我心中的小太阳，温暖了我的每一天。</t>
+  </si>
+  <si>
     <t>如果能预知未来，你最不希望看见的是什么？</t>
   </si>
   <si>
     <t>生活的美好，往往只是掩盖了不堪的真相。</t>
   </si>
   <si>
+    <t>只要有你在，我就不怕风雨。</t>
+  </si>
+  <si>
     <t>你最不开心的时候会有什么表现？</t>
   </si>
   <si>
     <t>不要相信那些“永远”，因为永远很可能只是一瞬。</t>
   </si>
   <si>
+    <t>你在我心中，永远是无可替代的那一位。</t>
+  </si>
+  <si>
     <t>怎样看待性？</t>
   </si>
   <si>
     <t>每一次的坚持，都是对自己选择的又一次放弃。</t>
   </si>
   <si>
+    <t>你就像那本书，越看越想看。</t>
+  </si>
+  <si>
     <t>你应该知道，我们两性格还算合拍，你长得又很漂亮，那么突然有一天我对你说我爱上你了，你怎么办？</t>
   </si>
   <si>
     <t>幸福的背后，必定是无数不为人知的苦楚。</t>
   </si>
   <si>
+    <t>你是我心中最甜的梦，无法醒来。</t>
+  </si>
+  <si>
     <t>你有没有在和另一半交往期间，在外面“偷吃”？</t>
   </si>
   <si>
     <t>人生就像一场戏，演员总是要面具，但观众却不在意。</t>
   </si>
   <si>
+    <t>我愿意做你心中的那朵花，静静绽放。</t>
+  </si>
+  <si>
     <t>分享一件做的蠢事</t>
   </si>
   <si>
     <t>不是所有的努力都有意义，有时候只是浪费时间。</t>
   </si>
   <si>
+    <t>你就是我心中的那把钥匙，打开了我的心扉。</t>
+  </si>
+  <si>
     <t>理想中30岁的样子</t>
   </si>
   <si>
     <t>不管你多么努力，生活总会给你开个玩笑。</t>
   </si>
   <si>
+    <t>你让我想到未来的每一个美好瞬间。</t>
+  </si>
+  <si>
     <t>去你喜欢的人家里，想拉肚子怎么办？</t>
   </si>
   <si>
     <t>生活是一种习惯，痛苦才是真正的常态。</t>
   </si>
   <si>
+    <t>你的存在让我的生活变得更加美好。</t>
+  </si>
+  <si>
     <t>最后一次发自内心的笑是什么时候？</t>
   </si>
   <si>
     <t>理想是好事，但现实往往让人失望。</t>
   </si>
   <si>
+    <t>我想和你一起分享生活中的每一个瞬间。</t>
+  </si>
+  <si>
     <t>说你最喜欢的一部电影？</t>
   </si>
   <si>
     <t>你以为的坚持，可能只是固执罢了。</t>
   </si>
   <si>
+    <t>你是我心中的那颗星，永远闪烁。</t>
+  </si>
+  <si>
     <t>第一次爱的人对你产生过什么影响？</t>
   </si>
   <si>
     <t>永远不要把希望寄托在别人身上，失望总是伴随而来。</t>
   </si>
   <si>
+    <t>我愿意为你编织一个幸福的世界。</t>
+  </si>
+  <si>
     <t>对你而言，感情和友情哪个比较重要？</t>
   </si>
   <si>
     <t>生活的意义就是不断地寻找意义，然后失望。</t>
   </si>
   <si>
+    <t>你的眼神是我最喜欢的风景。</t>
+  </si>
+  <si>
     <t>第一个喜欢的异性叫什么名字？</t>
   </si>
   <si>
     <t>不要期待亲情会永远存在，很多时候它也会变得脆弱。</t>
   </si>
   <si>
+    <t>我愿意做你的小宇宙，永远围绕着你。</t>
+  </si>
+  <si>
     <t>和多少异性有过非恋爱的暧昧关系？</t>
   </si>
   <si>
+    <t>你就是我的小幸运，每天都想见到你。</t>
+  </si>
+  <si>
     <t>认同没有性的爱情和没有爱的性吗？</t>
   </si>
   <si>
     <t>有些事情，你努力了也未必能得到。</t>
   </si>
   <si>
+    <t>我想给你我的全部，只为你快乐。</t>
+  </si>
+  <si>
     <t>对你来说最容易分手的原因是什么？</t>
   </si>
   <si>
     <t>不要期待未来会更好，可能它只会更糟。</t>
   </si>
   <si>
+    <t>你是我心中的那道光，照亮了人生的每一步。</t>
+  </si>
+  <si>
     <t>你对异性朋友做的最出格的一件事是什么事呢？</t>
   </si>
   <si>
     <t>有些错误是无法弥补的，别再纠结。</t>
   </si>
   <si>
+    <t>你的笑容就是我努力的动力。</t>
+  </si>
+  <si>
     <t>从小到大最丢脸出丑的事情是什么？</t>
   </si>
   <si>
     <t>生活就像一面镜子，你越是用力，反弹越会痛。</t>
   </si>
   <si>
+    <t>只要有你，生活就充满了希望。</t>
+  </si>
+  <si>
     <t>如果你爱的人不爱你怎么办？</t>
   </si>
   <si>
     <t>笑是为了掩饰内心的苦涩，没人能懂你的悲伤。</t>
   </si>
   <si>
+    <t>如果爱是一场旅行，我愿意与你同行。</t>
+  </si>
+  <si>
     <t>用四个字形容你现在的生活状态？</t>
   </si>
   <si>
     <t>每个成功的背后，都是无数个夜晚的泪水。</t>
   </si>
   <si>
+    <t>你是我心中的那颗珍珠，永远闪耀。</t>
+  </si>
+  <si>
     <t>每天睡觉前都会想起的人是谁？</t>
   </si>
   <si>
     <t>生活不会因为你的努力而改变，改变的只是你自己。</t>
   </si>
   <si>
+    <t>和你在一起是我最幸福的时光。</t>
+  </si>
+  <si>
     <t>你的初恋对象是谁？</t>
   </si>
   <si>
     <t>有些希望如烟花般绚烂，却瞬间消散。</t>
   </si>
   <si>
+    <t>我愿意为你献上我的全部，只为换你一笑。</t>
+  </si>
+  <si>
     <t>说出你撒过的最严重的谎？</t>
   </si>
   <si>
     <t>人生的路途总是崎岖不平，谁也不能保证一帆风顺。</t>
   </si>
   <si>
+    <t>你在我心里就像那颗最亮的星星，无法取代。</t>
+  </si>
+  <si>
     <t>你最难以释怀的事情是什么？</t>
   </si>
   <si>
     <t>有些梦想注定只能停留在心底。</t>
   </si>
   <si>
+    <t>如果你是鱼，我愿意做水，永远围绕着你。</t>
+  </si>
+  <si>
     <t>你愿意为爱情牺牲到什么程度？</t>
   </si>
   <si>
     <t>所有的努力终究是为了找到一个归宿，但归宿总是遥不可及。</t>
   </si>
   <si>
+    <t>你是我生活中的阳光，温暖了我的每一天。</t>
+  </si>
+  <si>
     <t>如果你有预知能力，你最不想看到的是什么？</t>
   </si>
   <si>
+    <t>只要能和你在一起，其他都不重要。</t>
+  </si>
+  <si>
     <t>爱人和妈掉到水里，只能救一个，你救哪一个？</t>
   </si>
   <si>
+    <t>你是我心中的那首歌，永远动听。</t>
+  </si>
+  <si>
     <t>世界末日，你会幸存，并且你可以救一个人，你会救？</t>
   </si>
   <si>
+    <t>我愿意为你守候，直到时间的尽头。</t>
+  </si>
+  <si>
     <t>让你一直念念不忘的一位异性的名字？原因？</t>
   </si>
   <si>
+    <t>你的每一句话都是我心中最美的乐曲。</t>
+  </si>
+  <si>
     <t>你喝醉的最有趣或最有趣的一次是什么？</t>
   </si>
   <si>
+    <t>我愿意陪你走过每一个春夏秋冬。</t>
+  </si>
+  <si>
     <t>分享一下你经历过的最尴尬的时刻。</t>
+  </si>
+  <si>
+    <t>你是我心中最美的时光，只想与你分享。</t>
   </si>
   <si>
     <t>描述一下你做过的最恶心的事情。</t>
@@ -2114,20 +2351,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.7583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2137,1354 +2375,1591 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="57" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="71.25" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="71.25" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="57" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="85.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="57" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="85.5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="57" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="71.25" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="72" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="71.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="57" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" ht="57" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="57" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="57" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="57" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="57" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="85.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="57" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="71.25" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" ht="57" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="85.5" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="54" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="71.25" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" ht="57" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="71.25" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="57" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="71.25" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="57" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" ht="71.25" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" ht="42.75" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" ht="57" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" ht="57" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="71.25" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" ht="72" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" ht="85.5" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" ht="72" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" ht="72" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" ht="54" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" ht="71.25" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" ht="57" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="57" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" ht="72" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" ht="72" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" ht="57" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" ht="71.25" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" ht="57" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" ht="71.25" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" ht="42.75" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" ht="71.25" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" ht="57" spans="1:3">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" ht="71.25" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" ht="57" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" ht="71.25" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" ht="57" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" ht="57" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" ht="42.75" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" ht="71.25" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" ht="54" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" ht="57" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" ht="57" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" ht="71.25" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" ht="57" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" ht="85.5" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" ht="57" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" ht="71.25" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" ht="72" spans="1:3">
+        <v>146</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" ht="72" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" ht="42.75" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" ht="85.5" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" ht="42.75" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" ht="71.25" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" ht="57" spans="1:3">
+        <v>158</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" ht="57" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" ht="42.75" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" ht="57" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" ht="57" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" ht="57" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" ht="42.75" spans="1:3">
+        <v>168</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" ht="71.25" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" ht="42.75" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" ht="57" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" ht="57" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" ht="42.75" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" ht="42.75" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" ht="71.25" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" ht="42.75" spans="1:3">
+        <v>180</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" ht="71.25" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" ht="57" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" ht="57" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" ht="57" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" ht="71.25" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" ht="57" spans="1:3">
+        <v>189</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" ht="57" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" ht="57" spans="1:3">
+        <v>192</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" ht="57" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" ht="57" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" ht="71.25" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="57" spans="1:3">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" ht="71.25" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" ht="57" spans="1:3">
+        <v>201</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" ht="57" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" ht="42.75" spans="1:3">
+        <v>204</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" ht="57" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" ht="42.75" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" ht="71.25" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" ht="42.75" spans="1:3">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" ht="57" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" ht="57" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" ht="57" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" ht="57" spans="1:3">
+        <v>216</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" ht="57" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" ht="57" spans="1:3">
+        <v>219</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" ht="71.25" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" ht="57" spans="1:3">
+        <v>222</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" ht="71.25" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" ht="42.75" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" ht="57" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" ht="42.75" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" ht="71.25" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" ht="42.75" spans="1:3">
+        <v>230</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" ht="57" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" ht="57" spans="1:3">
+        <v>233</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" ht="57" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" ht="57" spans="1:3">
+        <v>236</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" ht="71.25" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" ht="57" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" ht="57" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" ht="57" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" ht="57" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" ht="42.75" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" ht="71.25" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" ht="57" spans="1:3">
+        <v>248</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" ht="71.25" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" ht="42.75" spans="1:3">
+        <v>251</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" ht="71.25" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" ht="71.25" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" ht="71.25" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" ht="57" spans="1:3">
+        <v>257</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" ht="71.25" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" ht="28.5" spans="1:1">
+        <v>245</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" ht="57" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" ht="28.5" spans="1:1">
+        <v>261</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" ht="57" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" ht="28.5" spans="1:1">
+        <v>263</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" ht="71.25" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" ht="36" spans="1:1">
+        <v>265</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" ht="57" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" ht="36" spans="1:1">
+        <v>267</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" ht="71.25" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>191</v>
+        <v>269</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="80" ht="36" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" ht="36" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" ht="36" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" ht="18" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" ht="36" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" ht="36" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" ht="18" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" ht="36" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" ht="18" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" ht="36" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" ht="54" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" ht="36" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" ht="36" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" ht="18" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" ht="36" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" ht="36" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" ht="36" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" ht="54" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" ht="36" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:1">
       <c r="A100" s="3" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" ht="36" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" ht="36" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" ht="18" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" ht="18" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" ht="36" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" ht="36" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" ht="36" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" ht="36" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" ht="36" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" ht="36" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" ht="36" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" ht="36" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" ht="36" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" ht="36" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" ht="36" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" ht="36" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" ht="36" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" ht="36" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" ht="36" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" ht="54" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" ht="36" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" ht="36" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" ht="36" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" ht="36" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" ht="36" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" ht="36" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" ht="36" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" ht="36" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" ht="18" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" ht="18" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" ht="36" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" ht="18" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" ht="36" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" ht="36" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" ht="18" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" ht="36" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" ht="36" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143" ht="36" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" ht="36" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" ht="36" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" ht="36" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" ht="18" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
     </row>
     <row r="150" ht="18" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" ht="18" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" ht="18" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" ht="54" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" ht="36" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" ht="18" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" ht="18" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" ht="36" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" ht="18" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" ht="36" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" ht="36" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" ht="18" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" ht="18" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" ht="36" spans="1:1">
       <c r="A166" s="4" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" ht="36" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
     <row r="168" ht="18" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
     </row>
     <row r="169" ht="36" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" ht="18" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" ht="18" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173" ht="36" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" ht="36" spans="1:1">
       <c r="A174" s="4" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" ht="18" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" ht="18" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" ht="36" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
     </row>
     <row r="178" ht="36" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
     </row>
     <row r="180" ht="18" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" ht="36" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" ht="36" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" ht="36" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" ht="36" spans="1:1">
       <c r="A185" s="4" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
     </row>
     <row r="186" ht="18" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" ht="36" spans="1:1">
       <c r="A187" s="4" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" ht="36" spans="1:1">
       <c r="A188" s="4" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
     </row>
     <row r="189" ht="18" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190" ht="36" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" ht="18" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" ht="18" spans="1:1">
       <c r="A192" s="4" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" ht="36" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" ht="36" spans="1:1">
       <c r="A194" s="4" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" ht="18" spans="1:1">
       <c r="A195" s="4" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" ht="36" spans="1:1">
       <c r="A196" s="4" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" ht="36" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" ht="18" spans="1:1">
       <c r="A198" s="4" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" ht="36" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" ht="36" spans="1:1">
       <c r="A200" s="4" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" ht="18" spans="1:1">
       <c r="A201" s="4" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
     </row>
     <row r="202" ht="36" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
     </row>
     <row r="203" ht="18" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
